--- a/biology/Médecine/John_Davy/John_Davy.xlsx
+++ b/biology/Médecine/John_Davy/John_Davy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Davy (24 mai 1790 à Penzance, en Cornouailles dans le sud-ouest de l'Angleterre - 24 janvier 1868 à Ambleside, en Cumbria dans le nord de l'Angleterre) est un chimiste, un médecin militaire[1] et un physiologiste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Davy (24 mai 1790 à Penzance, en Cornouailles dans le sud-ouest de l'Angleterre - 24 janvier 1868 à Ambleside, en Cumbria dans le nord de l'Angleterre) est un chimiste, un médecin militaire et un physiologiste britannique.
 Frère du célèbre physicien et chimiste Sir Humphry Davy avec qui il a longuement collaboré, ce scientifique du XIXe siècle s'est principalement illustré en chimie (pour la synthèse du phosgène et du tétrafluorure de silicium) et en physiologie (dans l'étude du système cardio-vasculaire des amphibiens) à la suite de ses voyages dans les colonies britanniques en tant que médecin militaire avec la Royal Navy.
-John Davy est également connu en tant qu'éditeur de certains travaux et des mémoires de son frère[1] :
+John Davy est également connu en tant qu'éditeur de certains travaux et des mémoires de son frère :
 Memoirs of the Life of Sir Humphry Davy[a] en 2 volumes (1836) ;
 Collected Works of Sir Humphry Davy[b] en 9 volumes (1839–1840) ;
 Fragmentary Remains, Literary and Scientific, of Sir Humphry Davy[c] (1858).
@@ -517,7 +529,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) Robert Siegfried (Rédacteur de l'article biographique de John Davy) et Noretta Koertge (dir.), Complete Dictionary of Scientific Biography [« Dictionnaire biographique de scientifiques »] (Dictionnaire biographique), New York (États-Unis), Charles Scribner's Sons (Éditions Scribner), 2020 (1re éd. 2008), Livre numérique (ISBN 978-0-6843-1559-1, OCLC 892319250, BNF 41200568, lire en ligne), « John Davy ».</t>
         </is>
